--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8223,6 +8223,148 @@
       <c r="J224" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>404.8533333333333</v>
+      </c>
+      <c r="C225" t="n">
+        <v>411.04</v>
+      </c>
+      <c r="D225" t="n">
+        <v>421.02</v>
+      </c>
+      <c r="E225" t="n">
+        <v>397.8233333333333</v>
+      </c>
+      <c r="F225" t="n">
+        <v>383.62</v>
+      </c>
+      <c r="G225" t="n">
+        <v>381.6842105263158</v>
+      </c>
+      <c r="H225" t="n">
+        <v>384.8772727272727</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>395.2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>398.49</v>
+      </c>
+      <c r="D226" t="n">
+        <v>401.57</v>
+      </c>
+      <c r="E226" t="n">
+        <v>385.41</v>
+      </c>
+      <c r="F226" t="n">
+        <v>373.69</v>
+      </c>
+      <c r="G226" t="n">
+        <v>367.7842105263158</v>
+      </c>
+      <c r="H226" t="n">
+        <v>373.4427272727273</v>
+      </c>
+      <c r="I226" t="n">
+        <v>394.87</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>396.8733333333333</v>
+      </c>
+      <c r="C227" t="n">
+        <v>406</v>
+      </c>
+      <c r="D227" t="n">
+        <v>411</v>
+      </c>
+      <c r="E227" t="n">
+        <v>390.2033333333333</v>
+      </c>
+      <c r="F227" t="n">
+        <v>380.31</v>
+      </c>
+      <c r="G227" t="n">
+        <v>374.5242105263158</v>
+      </c>
+      <c r="H227" t="n">
+        <v>378.8672727272727</v>
+      </c>
+      <c r="I227" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>405.1533333333333</v>
+      </c>
+      <c r="C228" t="n">
+        <v>421.54</v>
+      </c>
+      <c r="D228" t="n">
+        <v>430.83</v>
+      </c>
+      <c r="E228" t="n">
+        <v>406.2633333333333</v>
+      </c>
+      <c r="F228" t="n">
+        <v>392.46</v>
+      </c>
+      <c r="G228" t="n">
+        <v>385.0942105263158</v>
+      </c>
+      <c r="H228" t="n">
+        <v>389.6409090909091</v>
+      </c>
+      <c r="I228" t="n">
+        <v>405.97</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10615,6 +10757,46 @@
       </c>
       <c r="B237" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -10783,28 +10965,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01328134432726959</v>
+        <v>0.01363534035854762</v>
       </c>
       <c r="J2" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K2" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001008891155759306</v>
+        <v>0.0001090839318965697</v>
       </c>
       <c r="M2" t="n">
-        <v>7.929904970584639</v>
+        <v>7.918358763707214</v>
       </c>
       <c r="N2" t="n">
-        <v>98.77916773010472</v>
+        <v>98.36348003964906</v>
       </c>
       <c r="O2" t="n">
-        <v>9.938770936594963</v>
+        <v>9.917836459614016</v>
       </c>
       <c r="P2" t="n">
-        <v>393.168370481822</v>
+        <v>392.920839548949</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10860,28 +11042,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06783087902569948</v>
+        <v>-0.06406882558823231</v>
       </c>
       <c r="J3" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K3" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002128490684626172</v>
+        <v>0.001955675591939876</v>
       </c>
       <c r="M3" t="n">
-        <v>8.803181759737372</v>
+        <v>8.771204033622064</v>
       </c>
       <c r="N3" t="n">
-        <v>121.0095167620692</v>
+        <v>120.0870311924722</v>
       </c>
       <c r="O3" t="n">
-        <v>11.00043257158868</v>
+        <v>10.95842284238349</v>
       </c>
       <c r="P3" t="n">
-        <v>409.9581651970182</v>
+        <v>409.922880684985</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10937,28 +11119,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2269864849420222</v>
+        <v>-0.192208088911525</v>
       </c>
       <c r="J4" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K4" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01623505875378317</v>
+        <v>0.01198530024566768</v>
       </c>
       <c r="M4" t="n">
-        <v>10.70042234694811</v>
+        <v>10.69837357218012</v>
       </c>
       <c r="N4" t="n">
-        <v>181.4962678211819</v>
+        <v>181.672706427819</v>
       </c>
       <c r="O4" t="n">
-        <v>13.47205507044793</v>
+        <v>13.47860179795438</v>
       </c>
       <c r="P4" t="n">
-        <v>413.2085956680609</v>
+        <v>412.8999942103488</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11014,28 +11196,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.212005323305591</v>
+        <v>-1.185952215585934</v>
       </c>
       <c r="J5" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3013444605408455</v>
+        <v>0.2986828771283253</v>
       </c>
       <c r="M5" t="n">
-        <v>11.12370137116147</v>
+        <v>11.06234327683079</v>
       </c>
       <c r="N5" t="n">
-        <v>193.3505982304102</v>
+        <v>191.733095290073</v>
       </c>
       <c r="O5" t="n">
-        <v>13.90505657055771</v>
+        <v>13.84677201697468</v>
       </c>
       <c r="P5" t="n">
-        <v>418.6671133611394</v>
+        <v>418.4281287530779</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11091,28 +11273,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.484234520537512</v>
+        <v>-1.458691233335234</v>
       </c>
       <c r="J6" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K6" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4691638977122602</v>
+        <v>0.4672614284529875</v>
       </c>
       <c r="M6" t="n">
-        <v>9.285348088232832</v>
+        <v>9.256887318275689</v>
       </c>
       <c r="N6" t="n">
-        <v>143.8591974988359</v>
+        <v>142.9614553673316</v>
       </c>
       <c r="O6" t="n">
-        <v>11.99413179429157</v>
+        <v>11.95664900243089</v>
       </c>
       <c r="P6" t="n">
-        <v>412.9903440175534</v>
+        <v>412.7575303937688</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -11162,28 +11344,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.231971760587676</v>
+        <v>-1.209172246310898</v>
       </c>
       <c r="J7" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K7" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3870394078273846</v>
+        <v>0.3850937126221619</v>
       </c>
       <c r="M7" t="n">
-        <v>9.036435629229407</v>
+        <v>9.011209752813928</v>
       </c>
       <c r="N7" t="n">
-        <v>138.1208855043831</v>
+        <v>137.0656548301008</v>
       </c>
       <c r="O7" t="n">
-        <v>11.75248422693615</v>
+        <v>11.70750421012526</v>
       </c>
       <c r="P7" t="n">
-        <v>402.2269134202315</v>
+        <v>402.0191731681256</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -11239,28 +11421,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.062056223020357</v>
+        <v>-1.060891270607597</v>
       </c>
       <c r="J8" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K8" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2630507053392798</v>
+        <v>0.2696892424642089</v>
       </c>
       <c r="M8" t="n">
-        <v>10.005425923221</v>
+        <v>9.921662941865337</v>
       </c>
       <c r="N8" t="n">
-        <v>178.2007448486299</v>
+        <v>175.5506155638878</v>
       </c>
       <c r="O8" t="n">
-        <v>13.34918517545659</v>
+        <v>13.24955152312288</v>
       </c>
       <c r="P8" t="n">
-        <v>408.3950552141224</v>
+        <v>408.3840106306888</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -11316,28 +11498,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6241927687125832</v>
+        <v>-0.5977078625043762</v>
       </c>
       <c r="J9" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K9" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1310572529315283</v>
+        <v>0.1234342130820192</v>
       </c>
       <c r="M9" t="n">
-        <v>9.402599260151797</v>
+        <v>9.404464849578462</v>
       </c>
       <c r="N9" t="n">
-        <v>147.0482291546243</v>
+        <v>146.8012080528068</v>
       </c>
       <c r="O9" t="n">
-        <v>12.12634442668623</v>
+        <v>12.11615483776956</v>
       </c>
       <c r="P9" t="n">
-        <v>403.527703295606</v>
+        <v>403.2832862818285</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -11374,7 +11556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22450,6 +22632,210 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-35.17148226929339,173.09550204143602</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-35.17186961431964,173.0962473690187</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-35.17216380883751,173.09700131376715</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-35.17263484471149,173.09765511375727</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>-35.172980727722866,173.09839078482952</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-35.17301885045518,173.0992526773542</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>-35.17300364622344,173.10012331641732</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>-35.171551898765834,173.09543842399825</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-35.171962356106505,173.09616839149072</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-35.172317578813406,173.09689859034597</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-35.17273874542849,173.09760440434465</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>-35.173068787585386,173.09837103520908</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-35.17314415201662,173.09924896020453</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>-35.173106352997515,173.10013437385533</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>-35.172778155747984,173.10095920890623</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>-35.17153982901857,173.09544945161434</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-35.17190685883637,173.09621565216847</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-35.1722430260806,173.0969483940889</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-35.17269862479987,173.09762398549185</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>-35.17301008101086,173.09838420162743</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-35.17308339428143,173.09925076262238</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>-35.17305762893038,173.10012912820605</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>-35.17281116531833,173.10096706572813</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-35.17148010539348,173.09550401849552</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-35.17179202154915,173.09631344569726</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-35.1720862518128,173.097053124251</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-35.172564201139004,173.09768959172686</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-35.172902334044956,173.0984083665305</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-35.172988111006966,173.0992535892576</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-35.172960858538076,173.10011870989237</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-35.17267992351037,173.10093582805314</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -10810,7 +10810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10901,35 +10901,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10988,27 +10993,28 @@
       <c r="P2" t="n">
         <v>392.920839548949</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.09283388222917 -35.17440244628688, 173.09893809314713 -35.167721273760094)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0928338822292</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.17440244628688</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0989380931471</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.16772127376009</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0958859876881</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.17106186002349</v>
       </c>
     </row>
@@ -11065,27 +11071,28 @@
       <c r="P3" t="n">
         <v>409.922880684985</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.09366058871476 -35.17490708369149, 173.09948924014867 -35.16806252056747)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0936605887148</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.17490708369149</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0994892401487</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.16806252056747</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0965749144317</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.17148480212948</v>
       </c>
     </row>
@@ -11142,27 +11149,28 @@
       <c r="P4" t="n">
         <v>412.8999942103488</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.09477764826735 -35.17549233543546, 173.09966857218464 -35.16817087026913)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.0947776482674</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.17549233543546</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0996685721846</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.16817087026913</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.097223110226</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.17183160285229</v>
       </c>
     </row>
@@ -11219,27 +11227,28 @@
       <c r="P5" t="n">
         <v>418.4281287530779</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.09602991106175 -35.175964650462994, 173.09981237490507 -35.168214473233824)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.0960299110617</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.17596465046299</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0998123749051</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.16821447323382</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.0979211429834</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.17208956184841</v>
       </c>
     </row>
@@ -11296,27 +11305,28 @@
       <c r="P6" t="n">
         <v>412.7575303937688</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.09762777826052 -35.17638269070999, 173.0994690146729 -35.16817280917064)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.0976277782605</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.17638269070999</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0994690146729</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.16817280917064</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.0985483964667</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.17227774994032</v>
       </c>
     </row>
@@ -11367,27 +11377,28 @@
       <c r="P7" t="n">
         <v>402.0191731681256</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.09915060307006 -35.17645954210719, 173.099398158741 -35.16811452037974)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.0991506030701</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.17645954210719</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.099398158741</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.16811452037974</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0992743809055</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.17228703124346</v>
       </c>
     </row>
@@ -11444,27 +11455,28 @@
       <c r="P8" t="n">
         <v>408.3840106306888</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.10049551603 -35.17646066912392, 173.09960032010574 -35.1681455046476)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.10049551603</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.17646066912392</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0996003201057</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.1681455046476</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1000479180679</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.17230308688576</v>
       </c>
     </row>
@@ -11521,27 +11533,28 @@
       <c r="P9" t="n">
         <v>403.2832862818285</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.1017909932025 -35.17627265294297, 173.09984095916587 -35.168079672141275)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.1017909932025</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.17627265294297</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.0998409591659</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.16807967214127</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.1008159761842</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.17217616254212</v>
       </c>
     </row>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8363,6 +8363,148 @@
         <v>405.97</v>
       </c>
       <c r="J228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>390.6133333333333</v>
+      </c>
+      <c r="C229" t="n">
+        <v>412.86</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="n">
+        <v>382.4333333333333</v>
+      </c>
+      <c r="F229" t="n">
+        <v>381.96</v>
+      </c>
+      <c r="G229" t="n">
+        <v>380.161052631579</v>
+      </c>
+      <c r="H229" t="n">
+        <v>394.4290909090909</v>
+      </c>
+      <c r="I229" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>385.9566666666667</v>
+      </c>
+      <c r="C230" t="n">
+        <v>402.04</v>
+      </c>
+      <c r="D230" t="n">
+        <v>388.93</v>
+      </c>
+      <c r="E230" t="n">
+        <v>374.3266666666667</v>
+      </c>
+      <c r="F230" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="G230" t="n">
+        <v>374.5284210526316</v>
+      </c>
+      <c r="H230" t="n">
+        <v>387.1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>396.99</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>378.98</v>
+      </c>
+      <c r="C231" t="n">
+        <v>400.59</v>
+      </c>
+      <c r="D231" t="n">
+        <v>415.6</v>
+      </c>
+      <c r="E231" t="n">
+        <v>437.92</v>
+      </c>
+      <c r="F231" t="n">
+        <v>413.34</v>
+      </c>
+      <c r="G231" t="n">
+        <v>401.2010526315789</v>
+      </c>
+      <c r="H231" t="n">
+        <v>419.4581818181818</v>
+      </c>
+      <c r="I231" t="n">
+        <v>396.84</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>392.6433333333333</v>
+      </c>
+      <c r="C232" t="n">
+        <v>419.15</v>
+      </c>
+      <c r="D232" t="n">
+        <v>406.83</v>
+      </c>
+      <c r="E232" t="n">
+        <v>410.7233333333333</v>
+      </c>
+      <c r="F232" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="G232" t="n">
+        <v>388.9273684210527</v>
+      </c>
+      <c r="H232" t="n">
+        <v>405.3672727272727</v>
+      </c>
+      <c r="I232" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8379,7 +8521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10797,6 +10939,46 @@
       </c>
       <c r="B241" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +11152,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01363534035854762</v>
+        <v>-0.007353250405236727</v>
       </c>
       <c r="J2" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K2" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001090839318965697</v>
+        <v>3.257724923666494e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.918358763707214</v>
+        <v>7.886359025153366</v>
       </c>
       <c r="N2" t="n">
-        <v>98.36348003964906</v>
+        <v>97.74434781874349</v>
       </c>
       <c r="O2" t="n">
-        <v>9.917836459614016</v>
+        <v>9.886574119417883</v>
       </c>
       <c r="P2" t="n">
-        <v>392.920839548949</v>
+        <v>393.1160049623785</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11048,28 +11230,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06406882558823231</v>
+        <v>-0.06274122819653091</v>
       </c>
       <c r="J3" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K3" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001955675591939876</v>
+        <v>0.001932050228411142</v>
       </c>
       <c r="M3" t="n">
-        <v>8.771204033622064</v>
+        <v>8.745622285228107</v>
       </c>
       <c r="N3" t="n">
-        <v>120.0870311924722</v>
+        <v>118.9819422441851</v>
       </c>
       <c r="O3" t="n">
-        <v>10.95842284238349</v>
+        <v>10.90788440735348</v>
       </c>
       <c r="P3" t="n">
-        <v>409.922880684985</v>
+        <v>409.9103062926336</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11126,28 +11308,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.192208088911525</v>
+        <v>-0.2042993857115966</v>
       </c>
       <c r="J4" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01198530024566768</v>
+        <v>0.01381603933552855</v>
       </c>
       <c r="M4" t="n">
-        <v>10.69837357218012</v>
+        <v>10.68183809574986</v>
       </c>
       <c r="N4" t="n">
-        <v>181.672706427819</v>
+        <v>181.0209178156589</v>
       </c>
       <c r="O4" t="n">
-        <v>13.47860179795438</v>
+        <v>13.45440142911081</v>
       </c>
       <c r="P4" t="n">
-        <v>412.8999942103488</v>
+        <v>413.0079100641977</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11204,28 +11386,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.185952215585934</v>
+        <v>-1.138597437058799</v>
       </c>
       <c r="J5" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K5" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2986828771283253</v>
+        <v>0.274379551896922</v>
       </c>
       <c r="M5" t="n">
-        <v>11.06234327683079</v>
+        <v>11.30498831578428</v>
       </c>
       <c r="N5" t="n">
-        <v>191.733095290073</v>
+        <v>203.2831826981896</v>
       </c>
       <c r="O5" t="n">
-        <v>13.84677201697468</v>
+        <v>14.25774114992237</v>
       </c>
       <c r="P5" t="n">
-        <v>418.4281287530779</v>
+        <v>417.9879195755224</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11282,28 +11464,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.458691233335234</v>
+        <v>-1.403722260450472</v>
       </c>
       <c r="J6" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4672614284529875</v>
+        <v>0.4433877708796081</v>
       </c>
       <c r="M6" t="n">
-        <v>9.256887318275689</v>
+        <v>9.380818490863087</v>
       </c>
       <c r="N6" t="n">
-        <v>142.9614553673316</v>
+        <v>148.6674371515391</v>
       </c>
       <c r="O6" t="n">
-        <v>11.95664900243089</v>
+        <v>12.19292570105875</v>
       </c>
       <c r="P6" t="n">
-        <v>412.7575303937688</v>
+        <v>412.2509742054198</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11354,28 +11536,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.209172246310898</v>
+        <v>-1.156825985752448</v>
       </c>
       <c r="J7" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K7" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3850937126221619</v>
+        <v>0.3633256203461231</v>
       </c>
       <c r="M7" t="n">
-        <v>9.011209752813928</v>
+        <v>9.11744797662103</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0656548301008</v>
+        <v>140.4963200907038</v>
       </c>
       <c r="O7" t="n">
-        <v>11.70750421012526</v>
+        <v>11.85311436250844</v>
       </c>
       <c r="P7" t="n">
-        <v>402.0191731681256</v>
+        <v>401.5366560643046</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11432,28 +11614,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.060891270607597</v>
+        <v>-0.9908126659591462</v>
       </c>
       <c r="J8" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K8" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2696892424642089</v>
+        <v>0.2403340744573459</v>
       </c>
       <c r="M8" t="n">
-        <v>9.921662941865337</v>
+        <v>10.14905946326738</v>
       </c>
       <c r="N8" t="n">
-        <v>175.5506155638878</v>
+        <v>182.3495758164734</v>
       </c>
       <c r="O8" t="n">
-        <v>13.24955152312288</v>
+        <v>13.50368748958866</v>
       </c>
       <c r="P8" t="n">
-        <v>408.3840106306888</v>
+        <v>407.7273871864523</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11510,28 +11692,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5977078625043762</v>
+        <v>-0.552205766665992</v>
       </c>
       <c r="J9" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K9" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1234342130820192</v>
+        <v>0.1087696830362229</v>
       </c>
       <c r="M9" t="n">
-        <v>9.404464849578462</v>
+        <v>9.4696785055396</v>
       </c>
       <c r="N9" t="n">
-        <v>146.8012080528068</v>
+        <v>147.5864689856865</v>
       </c>
       <c r="O9" t="n">
-        <v>12.11615483776956</v>
+        <v>12.14851715172212</v>
       </c>
       <c r="P9" t="n">
-        <v>403.2832862818285</v>
+        <v>402.860027247735</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11569,7 +11751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22849,6 +23031,210 @@
         </is>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-35.171584982370675,173.09540819689036</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-35.171856164908725,173.09625882231865</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-35.172763660392945,173.09759224441535</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-35.17299544870725,173.09838748328465</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-35.17303258096341,173.09925227003058</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>-35.17291785038133,173.10011407963646</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>-35.172728331649864,173.10094734996198</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-35.1716185708773,173.09537750844257</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-35.17193612237928,173.0961907317658</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-35.17241750948451,173.0968318331186</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-35.172831513906544,173.0975591279746</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-35.173043602287805,173.09837668364463</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>-35.17308335632562,173.09925076374836</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>-35.17298368135887,173.10012116699812</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>-35.172759394276056,173.10095474336958</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-35.17166889351414,173.09533153064217</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-35.171946837564136,173.09618160686645</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-35.17220665888615,173.0969726885647</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-35.17229923184766,173.09781891081644</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-35.172717168873206,173.09844989421578</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-35.17284291586143,173.09925789654602</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-35.17269303537965,173.1000898761461</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>-35.1727607217387,173.10095505932728</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-35.1715703399913,173.0954215750247</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-35.17180968314491,173.09629840539765</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-35.1722759937286,173.0969263705998</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-35.172526870526546,173.09770781110385</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-35.17288353375063,173.09841258295154</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-35.17295355700131,173.09925461432124</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>-35.172819602013796,173.10010350224098</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>-35.17264647144967,173.1009278659377</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.17193612237928,173.0961907317658</t>
+          <t>-35.171936122379286,173.0961907317658</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8507,6 +8507,42 @@
       <c r="J232" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>392.3466666666667</v>
+      </c>
+      <c r="C233" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>398.69</v>
+      </c>
+      <c r="E233" t="n">
+        <v>392.4566666666667</v>
+      </c>
+      <c r="F233" t="n">
+        <v>379.37</v>
+      </c>
+      <c r="G233" t="n">
+        <v>371.62</v>
+      </c>
+      <c r="H233" t="n">
+        <v>374.7527272727273</v>
+      </c>
+      <c r="I233" t="n">
+        <v>379.66</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10979,6 +11015,16 @@
       </c>
       <c r="B245" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -11152,28 +11198,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007353250405236727</v>
+        <v>-0.007843161461673376</v>
       </c>
       <c r="J2" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K2" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" t="n">
-        <v>3.257724923666494e-05</v>
+        <v>3.741503581122796e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.886359025153366</v>
+        <v>7.853424083750329</v>
       </c>
       <c r="N2" t="n">
-        <v>97.74434781874349</v>
+        <v>97.30554940032698</v>
       </c>
       <c r="O2" t="n">
-        <v>9.886574119417883</v>
+        <v>9.864357525978415</v>
       </c>
       <c r="P2" t="n">
-        <v>393.1160049623785</v>
+        <v>393.1206036276594</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11230,28 +11276,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06274122819653091</v>
+        <v>-0.06785820892578696</v>
       </c>
       <c r="J3" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K3" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001932050228411142</v>
+        <v>0.002277913681298038</v>
       </c>
       <c r="M3" t="n">
-        <v>8.745622285228107</v>
+        <v>8.731436432071039</v>
       </c>
       <c r="N3" t="n">
-        <v>118.9819422441851</v>
+        <v>118.6036475814931</v>
       </c>
       <c r="O3" t="n">
-        <v>10.90788440735348</v>
+        <v>10.89053017908188</v>
       </c>
       <c r="P3" t="n">
-        <v>409.9103062926336</v>
+        <v>409.9585320871012</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11308,28 +11354,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2042993857115966</v>
+        <v>-0.2130647049703837</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01381603933552855</v>
+        <v>0.01514089682301023</v>
       </c>
       <c r="M4" t="n">
-        <v>10.68183809574986</v>
+        <v>10.67705433585037</v>
       </c>
       <c r="N4" t="n">
-        <v>181.0209178156589</v>
+        <v>180.4997286163868</v>
       </c>
       <c r="O4" t="n">
-        <v>13.45440142911081</v>
+        <v>13.43501874268833</v>
       </c>
       <c r="P4" t="n">
-        <v>413.0079100641977</v>
+        <v>413.0871677337287</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11386,28 +11432,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.138597437058799</v>
+        <v>-1.135176207692039</v>
       </c>
       <c r="J5" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.274379551896922</v>
+        <v>0.2750875663301977</v>
       </c>
       <c r="M5" t="n">
-        <v>11.30498831578428</v>
+        <v>11.27076033147309</v>
       </c>
       <c r="N5" t="n">
-        <v>203.2831826981896</v>
+        <v>202.3897461786924</v>
       </c>
       <c r="O5" t="n">
-        <v>14.25774114992237</v>
+        <v>14.22637501891091</v>
       </c>
       <c r="P5" t="n">
-        <v>417.9879195755224</v>
+        <v>417.9559418132532</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11464,28 +11510,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.403722260450472</v>
+        <v>-1.400873526076605</v>
       </c>
       <c r="J6" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K6" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4433877708796081</v>
+        <v>0.4446352104783035</v>
       </c>
       <c r="M6" t="n">
-        <v>9.380818490863087</v>
+        <v>9.353232584327262</v>
       </c>
       <c r="N6" t="n">
-        <v>148.6674371515391</v>
+        <v>148.0338741027456</v>
       </c>
       <c r="O6" t="n">
-        <v>12.19292570105875</v>
+        <v>12.16691719799003</v>
       </c>
       <c r="P6" t="n">
-        <v>412.2509742054198</v>
+        <v>412.2245089830255</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11536,28 +11582,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.156825985752448</v>
+        <v>-1.156863449710916</v>
       </c>
       <c r="J7" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K7" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3633256203461231</v>
+        <v>0.3655789798306593</v>
       </c>
       <c r="M7" t="n">
-        <v>9.11744797662103</v>
+        <v>9.075048649000946</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4963200907038</v>
+        <v>139.8398039331476</v>
       </c>
       <c r="O7" t="n">
-        <v>11.85311436250844</v>
+        <v>11.82538810919741</v>
       </c>
       <c r="P7" t="n">
-        <v>401.5366560643046</v>
+        <v>401.5370043334275</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11614,28 +11660,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9908126659591462</v>
+        <v>-0.9971611481626727</v>
       </c>
       <c r="J8" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2403340744573459</v>
+        <v>0.244181372218932</v>
       </c>
       <c r="M8" t="n">
-        <v>10.14905946326738</v>
+        <v>10.13098606988335</v>
       </c>
       <c r="N8" t="n">
-        <v>182.3495758164734</v>
+        <v>181.7572822732155</v>
       </c>
       <c r="O8" t="n">
-        <v>13.50368748958866</v>
+        <v>13.48173884457103</v>
       </c>
       <c r="P8" t="n">
-        <v>407.7273871864523</v>
+        <v>407.7873746814894</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11692,28 +11738,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.552205766665992</v>
+        <v>-0.5600019013976283</v>
       </c>
       <c r="J9" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K9" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1087696830362229</v>
+        <v>0.1122381991735252</v>
       </c>
       <c r="M9" t="n">
-        <v>9.4696785055396</v>
+        <v>9.466181500298402</v>
       </c>
       <c r="N9" t="n">
-        <v>147.5864689856865</v>
+        <v>147.2649496486731</v>
       </c>
       <c r="O9" t="n">
-        <v>12.14851715172212</v>
+        <v>12.13527707342</v>
       </c>
       <c r="P9" t="n">
-        <v>402.860027247735</v>
+        <v>402.9331979923277</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11751,7 +11797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23235,6 +23281,58 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-35.171572479846496,173.0954196199282</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-35.17193420103573,173.09619236795442</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-35.17234034783043,173.09688337985284</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-35.17267976419721,173.0976331905308</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-35.17301841698984,173.0983823320767</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>-35.173109574289526,173.09924998597566</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>-35.173094586384394,173.10013310705725</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>-35.17291276045269,173.10099124708594</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8543,6 +8543,78 @@
       <c r="J233" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>391.9733333333333</v>
+      </c>
+      <c r="C234" t="n">
+        <v>413.33</v>
+      </c>
+      <c r="D234" t="n">
+        <v>397.16</v>
+      </c>
+      <c r="E234" t="n">
+        <v>393.1433333333333</v>
+      </c>
+      <c r="F234" t="n">
+        <v>385.74</v>
+      </c>
+      <c r="G234" t="n">
+        <v>369.3278947368421</v>
+      </c>
+      <c r="H234" t="n">
+        <v>375.9718181818182</v>
+      </c>
+      <c r="I234" t="n">
+        <v>387.53</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>395.28</v>
+      </c>
+      <c r="C235" t="n">
+        <v>398.39</v>
+      </c>
+      <c r="D235" t="n">
+        <v>404.55</v>
+      </c>
+      <c r="E235" t="n">
+        <v>391.48</v>
+      </c>
+      <c r="F235" t="n">
+        <v>377.47</v>
+      </c>
+      <c r="G235" t="n">
+        <v>372.0047368421053</v>
+      </c>
+      <c r="H235" t="n">
+        <v>374.56</v>
+      </c>
+      <c r="I235" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11025,6 +11097,26 @@
       </c>
       <c r="B246" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -11198,28 +11290,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007843161461673376</v>
+        <v>-0.006660499310614819</v>
       </c>
       <c r="J2" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K2" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L2" t="n">
-        <v>3.741503581122796e-05</v>
+        <v>2.748355833348537e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.853424083750329</v>
+        <v>7.798116647642767</v>
       </c>
       <c r="N2" t="n">
-        <v>97.30554940032698</v>
+        <v>96.46553089557598</v>
       </c>
       <c r="O2" t="n">
-        <v>9.864357525978415</v>
+        <v>9.8216867642771</v>
       </c>
       <c r="P2" t="n">
-        <v>393.1206036276594</v>
+        <v>393.1094153526441</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11276,28 +11368,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06785820892578696</v>
+        <v>-0.07181166246921818</v>
       </c>
       <c r="J3" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002277913681298038</v>
+        <v>0.002586823767764201</v>
       </c>
       <c r="M3" t="n">
-        <v>8.731436432071039</v>
+        <v>8.718785350019578</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6036475814931</v>
+        <v>118.0878770045397</v>
       </c>
       <c r="O3" t="n">
-        <v>10.89053017908188</v>
+        <v>10.86682460540059</v>
       </c>
       <c r="P3" t="n">
-        <v>409.9585320871012</v>
+        <v>409.9961342722354</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11354,28 +11446,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2130647049703837</v>
+        <v>-0.225731614969068</v>
       </c>
       <c r="J4" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01514089682301023</v>
+        <v>0.01727806832311551</v>
       </c>
       <c r="M4" t="n">
-        <v>10.67705433585037</v>
+        <v>10.63978169843178</v>
       </c>
       <c r="N4" t="n">
-        <v>180.4997286163868</v>
+        <v>179.2366524336677</v>
       </c>
       <c r="O4" t="n">
-        <v>13.43501874268833</v>
+        <v>13.38792935571695</v>
       </c>
       <c r="P4" t="n">
-        <v>413.0871677337287</v>
+        <v>413.2020456559569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11432,28 +11524,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.135176207692039</v>
+        <v>-1.128685053994369</v>
       </c>
       <c r="J5" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K5" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2750875663301977</v>
+        <v>0.2765649484440346</v>
       </c>
       <c r="M5" t="n">
-        <v>11.27076033147309</v>
+        <v>11.20108896629536</v>
       </c>
       <c r="N5" t="n">
-        <v>202.3897461786924</v>
+        <v>200.6240432065873</v>
       </c>
       <c r="O5" t="n">
-        <v>14.22637501891091</v>
+        <v>14.16418169915182</v>
       </c>
       <c r="P5" t="n">
-        <v>417.9559418132532</v>
+        <v>417.8950535372109</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11510,28 +11602,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.400873526076605</v>
+        <v>-1.391511851589844</v>
       </c>
       <c r="J6" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K6" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4446352104783035</v>
+        <v>0.4451970636201253</v>
       </c>
       <c r="M6" t="n">
-        <v>9.353232584327262</v>
+        <v>9.318520680300528</v>
       </c>
       <c r="N6" t="n">
-        <v>148.0338741027456</v>
+        <v>147.1195344771786</v>
       </c>
       <c r="O6" t="n">
-        <v>12.16691719799003</v>
+        <v>12.12928417002333</v>
       </c>
       <c r="P6" t="n">
-        <v>412.2245089830255</v>
+        <v>412.1372980870037</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11582,28 +11674,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.156863449710916</v>
+        <v>-1.158388292744805</v>
       </c>
       <c r="J7" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3655789798306593</v>
+        <v>0.3705801873751439</v>
       </c>
       <c r="M7" t="n">
-        <v>9.075048649000946</v>
+        <v>9.003864176573924</v>
       </c>
       <c r="N7" t="n">
-        <v>139.8398039331476</v>
+        <v>138.5699524312073</v>
       </c>
       <c r="O7" t="n">
-        <v>11.82538810919741</v>
+        <v>11.77157391478333</v>
       </c>
       <c r="P7" t="n">
-        <v>401.5370043334275</v>
+        <v>401.5511983215178</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11660,28 +11752,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9971611481626727</v>
+        <v>-1.008429734535282</v>
       </c>
       <c r="J8" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K8" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L8" t="n">
-        <v>0.244181372218932</v>
+        <v>0.2514652224650038</v>
       </c>
       <c r="M8" t="n">
-        <v>10.13098606988335</v>
+        <v>10.08855041452576</v>
       </c>
       <c r="N8" t="n">
-        <v>181.7572822732155</v>
+        <v>180.4995600884637</v>
       </c>
       <c r="O8" t="n">
-        <v>13.48173884457103</v>
+        <v>13.4350124707223</v>
       </c>
       <c r="P8" t="n">
-        <v>407.7873746814894</v>
+        <v>407.8942889973076</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11738,28 +11830,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5600019013976283</v>
+        <v>-0.5635819797741268</v>
       </c>
       <c r="J9" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K9" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1122381991735252</v>
+        <v>0.1154267698792935</v>
       </c>
       <c r="M9" t="n">
-        <v>9.466181500298402</v>
+        <v>9.397074091573593</v>
       </c>
       <c r="N9" t="n">
-        <v>147.2649496486731</v>
+        <v>145.9536638582122</v>
       </c>
       <c r="O9" t="n">
-        <v>12.13527707342</v>
+        <v>12.08112841824853</v>
       </c>
       <c r="P9" t="n">
-        <v>402.9331979923277</v>
+        <v>402.9669630830727</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11797,7 +11889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23333,6 +23425,110 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-35.171575172697956,173.09541715958187</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-35.17185269170901,173.09626178003836</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-35.17235244386992,173.0968752992749</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-35.1726740167353,173.09763599561575</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-35.17296192742939,173.09839500125858</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>-35.173130236474165,173.0992493730184</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>-35.173083636330134,173.10013192817055</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>-35.17284311291791,173.1009746697897</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-35.17155132172615,173.095438951215</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-35.17196309508466,173.09616776218698</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-35.17229401920343,173.09691432897233</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-35.17268793898514,173.0976292007733</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-35.17303526630894,173.09837855319648</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>-35.17310610607896,173.0992500888624</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>-35.17309631748918,173.10013329342866</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>-35.17286426382143,173.1009797040609</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8613,6 +8613,78 @@
         <v>385.14</v>
       </c>
       <c r="J235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>388.9966666666666</v>
+      </c>
+      <c r="C236" t="n">
+        <v>395.48</v>
+      </c>
+      <c r="D236" t="n">
+        <v>396.23</v>
+      </c>
+      <c r="E236" t="n">
+        <v>383.0266666666667</v>
+      </c>
+      <c r="F236" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="G236" t="n">
+        <v>360.6052631578947</v>
+      </c>
+      <c r="H236" t="n">
+        <v>370.3563636363637</v>
+      </c>
+      <c r="I236" t="n">
+        <v>375.07</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>409.49</v>
+      </c>
+      <c r="C237" t="n">
+        <v>412.47</v>
+      </c>
+      <c r="D237" t="n">
+        <v>412.09</v>
+      </c>
+      <c r="E237" t="n">
+        <v>398.68</v>
+      </c>
+      <c r="F237" t="n">
+        <v>386.39</v>
+      </c>
+      <c r="G237" t="n">
+        <v>386.4163157894737</v>
+      </c>
+      <c r="H237" t="n">
+        <v>383.0990909090909</v>
+      </c>
+      <c r="I237" t="n">
+        <v>391.86</v>
+      </c>
+      <c r="J237" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8629,7 +8701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11117,6 +11189,26 @@
       </c>
       <c r="B248" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -11290,28 +11382,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.006660499310614819</v>
+        <v>0.003627573869156467</v>
       </c>
       <c r="J2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K2" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>2.748355833348537e-05</v>
+        <v>8.194688136176076e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>7.798116647642767</v>
+        <v>7.820451809867649</v>
       </c>
       <c r="N2" t="n">
-        <v>96.46553089557598</v>
+        <v>96.8835599486474</v>
       </c>
       <c r="O2" t="n">
-        <v>9.8216867642771</v>
+        <v>9.842944678735496</v>
       </c>
       <c r="P2" t="n">
-        <v>393.1094153526441</v>
+        <v>393.0118003315839</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11368,28 +11460,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07181166246921818</v>
+        <v>-0.07860573546720656</v>
       </c>
       <c r="J3" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K3" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002586823767764201</v>
+        <v>0.003134488414804348</v>
       </c>
       <c r="M3" t="n">
-        <v>8.718785350019578</v>
+        <v>8.714567749063134</v>
       </c>
       <c r="N3" t="n">
-        <v>118.0878770045397</v>
+        <v>117.8291738312978</v>
       </c>
       <c r="O3" t="n">
-        <v>10.86682460540059</v>
+        <v>10.85491473164565</v>
       </c>
       <c r="P3" t="n">
-        <v>409.9961342722354</v>
+        <v>410.0605847416468</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11446,28 +11538,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.225731614969068</v>
+        <v>-0.2315634675240806</v>
       </c>
       <c r="J4" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01727806832311551</v>
+        <v>0.01847709307194989</v>
       </c>
       <c r="M4" t="n">
-        <v>10.63978169843178</v>
+        <v>10.61398811529745</v>
       </c>
       <c r="N4" t="n">
-        <v>179.2366524336677</v>
+        <v>178.155281521419</v>
       </c>
       <c r="O4" t="n">
-        <v>13.38792935571695</v>
+        <v>13.34748221656126</v>
       </c>
       <c r="P4" t="n">
-        <v>413.2020456559569</v>
+        <v>413.2551022629958</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11524,28 +11616,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.128685053994369</v>
+        <v>-1.124755289935083</v>
       </c>
       <c r="J5" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K5" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2765649484440346</v>
+        <v>0.278378333836344</v>
       </c>
       <c r="M5" t="n">
-        <v>11.20108896629536</v>
+        <v>11.17049648865204</v>
       </c>
       <c r="N5" t="n">
-        <v>200.6240432065873</v>
+        <v>199.3791289621799</v>
       </c>
       <c r="O5" t="n">
-        <v>14.16418169915182</v>
+        <v>14.12016745517488</v>
       </c>
       <c r="P5" t="n">
-        <v>417.8950535372109</v>
+        <v>417.8578457430139</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11602,28 +11694,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.391511851589844</v>
+        <v>-1.388272592025177</v>
       </c>
       <c r="J6" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K6" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4451970636201253</v>
+        <v>0.4474105466805999</v>
       </c>
       <c r="M6" t="n">
-        <v>9.318520680300528</v>
+        <v>9.310921467707292</v>
       </c>
       <c r="N6" t="n">
-        <v>147.1195344771786</v>
+        <v>146.4740882666977</v>
       </c>
       <c r="O6" t="n">
-        <v>12.12928417002333</v>
+        <v>12.1026479857384</v>
       </c>
       <c r="P6" t="n">
-        <v>412.1372980870037</v>
+        <v>412.1067737725103</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11674,28 +11766,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.158388292744805</v>
+        <v>-1.154909182856952</v>
       </c>
       <c r="J7" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3705801873751439</v>
+        <v>0.3708771550763076</v>
       </c>
       <c r="M7" t="n">
-        <v>9.003864176573924</v>
+        <v>9.039680870558827</v>
       </c>
       <c r="N7" t="n">
-        <v>138.5699524312073</v>
+        <v>138.8711253739063</v>
       </c>
       <c r="O7" t="n">
-        <v>11.77157391478333</v>
+        <v>11.78435935356294</v>
       </c>
       <c r="P7" t="n">
-        <v>401.5511983215178</v>
+        <v>401.5183238467945</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11752,28 +11844,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.008429734535282</v>
+        <v>-1.016581960273996</v>
       </c>
       <c r="J8" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K8" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2514652224650038</v>
+        <v>0.2574049049941475</v>
       </c>
       <c r="M8" t="n">
-        <v>10.08855041452576</v>
+        <v>10.04721605433003</v>
       </c>
       <c r="N8" t="n">
-        <v>180.4995600884637</v>
+        <v>179.4516263346522</v>
       </c>
       <c r="O8" t="n">
-        <v>13.4350124707223</v>
+        <v>13.3959555961735</v>
       </c>
       <c r="P8" t="n">
-        <v>407.8942889973076</v>
+        <v>407.97190058376</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11830,28 +11922,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5635819797741268</v>
+        <v>-0.5716738159736988</v>
       </c>
       <c r="J9" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1154267698792935</v>
+        <v>0.1197259553985749</v>
       </c>
       <c r="M9" t="n">
-        <v>9.397074091573593</v>
+        <v>9.386114005010393</v>
       </c>
       <c r="N9" t="n">
-        <v>145.9536638582122</v>
+        <v>145.4729350524831</v>
       </c>
       <c r="O9" t="n">
-        <v>12.08112841824853</v>
+        <v>12.0612161514701</v>
       </c>
       <c r="P9" t="n">
-        <v>402.9669630830727</v>
+        <v>403.0434422021532</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11889,7 +11981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23529,6 +23621,110 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-35.17159664337781,173.0953975427077</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-35.17198459934795,173.0961494494434</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-35.17235979636423,173.0968703875499</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>-35.172758694140335,173.09759466823164</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>-35.17310612212798,173.0983626619937</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>-35.17320886664253,173.09924704040014</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>-35.173134075170516,173.10013735843657</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>-35.172953380805076,173.1010009154332</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-35.17144882501463,173.09553259797755</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-35.17185904692544,173.0962563680404</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-35.17223440863715,173.09695415082535</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-35.17262767433356,173.09765861330112</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-35.172956163188424,173.0983962940313</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>-35.17297619288779,173.09925394281527</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>-35.17301961811503,173.10012503595345</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>-35.17280479349783,173.1009655491293</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8685,6 +8685,42 @@
         <v>391.86</v>
       </c>
       <c r="J237" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>388.87</v>
+      </c>
+      <c r="C238" t="n">
+        <v>393.48</v>
+      </c>
+      <c r="D238" t="n">
+        <v>391.56</v>
+      </c>
+      <c r="E238" t="n">
+        <v>374.98</v>
+      </c>
+      <c r="F238" t="n">
+        <v>369.03</v>
+      </c>
+      <c r="G238" t="n">
+        <v>357.2510526315789</v>
+      </c>
+      <c r="H238" t="n">
+        <v>371.4918181818182</v>
+      </c>
+      <c r="I238" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="J238" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8701,7 +8737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11209,6 +11245,16 @@
       </c>
       <c r="B250" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -11382,28 +11428,28 @@
         <v>0.0305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003627573869156467</v>
+        <v>0.0001960428618468685</v>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L2" t="n">
-        <v>8.194688136176076e-06</v>
+        <v>2.413295119296777e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>7.820451809867649</v>
+        <v>7.804023772499429</v>
       </c>
       <c r="N2" t="n">
-        <v>96.8835599486474</v>
+        <v>96.53476416772962</v>
       </c>
       <c r="O2" t="n">
-        <v>9.842944678735496</v>
+        <v>9.825210642410147</v>
       </c>
       <c r="P2" t="n">
-        <v>393.0118003315839</v>
+        <v>393.0444822363335</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11460,28 +11506,28 @@
         <v>0.0253</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07860573546720656</v>
+        <v>-0.09048939493453384</v>
       </c>
       <c r="J3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K3" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003134488414804348</v>
+        <v>0.004155309535532337</v>
       </c>
       <c r="M3" t="n">
-        <v>8.714567749063134</v>
+        <v>8.735513523106953</v>
       </c>
       <c r="N3" t="n">
-        <v>117.8291738312978</v>
+        <v>118.2291141852879</v>
       </c>
       <c r="O3" t="n">
-        <v>10.85491473164565</v>
+        <v>10.87332121227401</v>
       </c>
       <c r="P3" t="n">
-        <v>410.0605847416468</v>
+        <v>410.1742073672461</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11538,28 +11584,28 @@
         <v>0.0212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2315634675240806</v>
+        <v>-0.2459254377406438</v>
       </c>
       <c r="J4" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01847709307194989</v>
+        <v>0.02086750710354224</v>
       </c>
       <c r="M4" t="n">
-        <v>10.61398811529745</v>
+        <v>10.64341344663839</v>
       </c>
       <c r="N4" t="n">
-        <v>178.155281521419</v>
+        <v>178.4731769747632</v>
       </c>
       <c r="O4" t="n">
-        <v>13.34748221656126</v>
+        <v>13.35938535168303</v>
       </c>
       <c r="P4" t="n">
-        <v>413.2551022629958</v>
+        <v>413.386898313068</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11616,28 +11662,28 @@
         <v>0.0327</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.124755289935083</v>
+        <v>-1.136159987657001</v>
       </c>
       <c r="J5" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K5" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L5" t="n">
-        <v>0.278378333836344</v>
+        <v>0.2835246749272101</v>
       </c>
       <c r="M5" t="n">
-        <v>11.17049648865204</v>
+        <v>11.17887750169433</v>
       </c>
       <c r="N5" t="n">
-        <v>199.3791289621799</v>
+        <v>199.2895398116534</v>
       </c>
       <c r="O5" t="n">
-        <v>14.12016745517488</v>
+        <v>14.11699471600289</v>
       </c>
       <c r="P5" t="n">
-        <v>417.8578457430139</v>
+        <v>417.9660211894685</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11694,28 +11740,28 @@
         <v>0.044</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.388272592025177</v>
+        <v>-1.393806572660508</v>
       </c>
       <c r="J6" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K6" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4474105466805999</v>
+        <v>0.4512760423980553</v>
       </c>
       <c r="M6" t="n">
-        <v>9.310921467707292</v>
+        <v>9.299636414908447</v>
       </c>
       <c r="N6" t="n">
-        <v>146.4740882666977</v>
+        <v>146.0216806602107</v>
       </c>
       <c r="O6" t="n">
-        <v>12.1026479857384</v>
+        <v>12.08394309239375</v>
       </c>
       <c r="P6" t="n">
-        <v>412.1067737725103</v>
+        <v>412.1589639430773</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11766,28 +11812,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.154909182856952</v>
+        <v>-1.166545305595892</v>
       </c>
       <c r="J7" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K7" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3708771550763076</v>
+        <v>0.37622274473173</v>
       </c>
       <c r="M7" t="n">
-        <v>9.039680870558827</v>
+        <v>9.063735799292798</v>
       </c>
       <c r="N7" t="n">
-        <v>138.8711253739063</v>
+        <v>139.1342137433566</v>
       </c>
       <c r="O7" t="n">
-        <v>11.78435935356294</v>
+        <v>11.79551667979646</v>
       </c>
       <c r="P7" t="n">
-        <v>401.5183238467945</v>
+        <v>401.6281215403333</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11844,28 +11890,28 @@
         <v>0.0618</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.016581960273996</v>
+        <v>-1.024758660172336</v>
       </c>
       <c r="J8" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K8" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2574049049941475</v>
+        <v>0.2617750046536621</v>
       </c>
       <c r="M8" t="n">
-        <v>10.04721605433003</v>
+        <v>10.03939242000746</v>
       </c>
       <c r="N8" t="n">
-        <v>179.4516263346522</v>
+        <v>179.0822111698403</v>
       </c>
       <c r="O8" t="n">
-        <v>13.3959555961735</v>
+        <v>13.38216018323799</v>
       </c>
       <c r="P8" t="n">
-        <v>407.97190058376</v>
+        <v>408.0503031571398</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11922,28 +11968,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5716738159736988</v>
+        <v>-0.5816106819520894</v>
       </c>
       <c r="J9" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K9" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1197259553985749</v>
+        <v>0.1239415537205539</v>
       </c>
       <c r="M9" t="n">
-        <v>9.386114005010393</v>
+        <v>9.39524256392675</v>
       </c>
       <c r="N9" t="n">
-        <v>145.4729350524831</v>
+        <v>145.4482963605426</v>
       </c>
       <c r="O9" t="n">
-        <v>12.0612161514701</v>
+        <v>12.06019470657678</v>
       </c>
       <c r="P9" t="n">
-        <v>403.0434422021532</v>
+        <v>403.1380815728975</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11981,7 +12027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23725,6 +23771,58 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-35.17159755702368,173.09539670794686</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-35.17199937890871,173.09613686335976</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-35.17239671695086,173.09684572328302</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-35.17282604544939,173.09756179690032</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-35.17311011275599,173.09836176699395</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>-35.17323910317535,173.09924614341136</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>-35.17312387635048,173.10013626042692</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>-35.1729433805877,173.10099853520737</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0060/nzd0060.xlsx
+++ b/data/nzd0060/nzd0060.xlsx
@@ -11419,13 +11419,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0297</v>
+        <v>0.0386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0305</v>
+        <v>0.0403</v>
       </c>
       <c r="I2" t="n">
         <v>0.0002172704223230116</v>
@@ -11500,10 +11500,10 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0209</v>
+        <v>0.0249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0253</v>
+        <v>0.0251</v>
       </c>
       <c r="I3" t="n">
         <v>-0.09048939493453391</v>
@@ -11575,13 +11575,13 @@
         <v>0.2858404260339173</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0198</v>
+        <v>0.0246</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0212</v>
+        <v>0.0251</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2459254377406438</v>
@@ -11656,10 +11656,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0284</v>
+        <v>0.0295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0327</v>
+        <v>0.0306</v>
       </c>
       <c r="I5" t="n">
         <v>-1.136136079429595</v>
@@ -11734,10 +11734,10 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0349</v>
+        <v>0.0392</v>
       </c>
       <c r="H6" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="I6" t="n">
         <v>-1.393806572660508</v>
@@ -11808,9 +11808,15 @@
       <c r="E7" t="n">
         <v>0.7136691171706708</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0466</v>
+      </c>
       <c r="I7" t="n">
         <v>-1.166527131604562</v>
       </c>
@@ -11881,13 +11887,13 @@
         <v>0.8567216486232591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.048</v>
+        <v>0.0394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0618</v>
+        <v>0.0455</v>
       </c>
       <c r="I8" t="n">
         <v>-1.024727406533238</v>
@@ -11962,10 +11968,10 @@
         <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0381</v>
+        <v>0.0389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0429</v>
+        <v>0.0443</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5816106819520894</v>
